--- a/data/pca/factorExposure/factorExposure_2015-11-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01703160478137629</v>
+        <v>0.0140887138231386</v>
       </c>
       <c r="C2">
-        <v>0.03417673540230399</v>
+        <v>-0.03269422765499137</v>
       </c>
       <c r="D2">
-        <v>0.08907546261649502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1235216453007713</v>
+      </c>
+      <c r="E2">
+        <v>0.06768331415716911</v>
+      </c>
+      <c r="F2">
+        <v>0.02641751242759966</v>
+      </c>
+      <c r="G2">
+        <v>0.0732532187395474</v>
+      </c>
+      <c r="H2">
+        <v>-0.0915473685706843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0180634486310839</v>
+        <v>0.01051029946058731</v>
       </c>
       <c r="C3">
-        <v>0.05027865173928436</v>
+        <v>-0.03769658853055799</v>
       </c>
       <c r="D3">
-        <v>0.1204008662659075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07303655228146629</v>
+      </c>
+      <c r="E3">
+        <v>0.05122050733807721</v>
+      </c>
+      <c r="F3">
+        <v>0.03701841987310858</v>
+      </c>
+      <c r="G3">
+        <v>0.09505715872887469</v>
+      </c>
+      <c r="H3">
+        <v>-0.01572838137216656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05411870139768181</v>
+        <v>0.05326363500564212</v>
       </c>
       <c r="C4">
-        <v>0.04544236056592631</v>
+        <v>-0.06336405900153404</v>
       </c>
       <c r="D4">
-        <v>0.1299960053566534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1467033596939574</v>
+      </c>
+      <c r="E4">
+        <v>0.05122841538876874</v>
+      </c>
+      <c r="F4">
+        <v>0.02094669049308959</v>
+      </c>
+      <c r="G4">
+        <v>-0.03754281260473784</v>
+      </c>
+      <c r="H4">
+        <v>0.02086684044185191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04348654682211302</v>
+        <v>0.03952929213917287</v>
       </c>
       <c r="C6">
-        <v>0.01218830144873948</v>
+        <v>-0.02808423619344746</v>
       </c>
       <c r="D6">
-        <v>0.1353658991056489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1334250010640448</v>
+      </c>
+      <c r="E6">
+        <v>0.02955720966430624</v>
+      </c>
+      <c r="F6">
+        <v>0.01687990974458017</v>
+      </c>
+      <c r="G6">
+        <v>0.01084159430147588</v>
+      </c>
+      <c r="H6">
+        <v>-0.0162041888727668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02234655723191762</v>
+        <v>0.01396418534778266</v>
       </c>
       <c r="C7">
-        <v>0.01835333613806199</v>
+        <v>-0.03128848977350859</v>
       </c>
       <c r="D7">
-        <v>0.09665513743806976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09506194811883538</v>
+      </c>
+      <c r="E7">
+        <v>0.02878677369147923</v>
+      </c>
+      <c r="F7">
+        <v>0.02294078801997823</v>
+      </c>
+      <c r="G7">
+        <v>0.0005689600947604965</v>
+      </c>
+      <c r="H7">
+        <v>-0.1139406171769772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01108274168613011</v>
+        <v>0.006814910443613059</v>
       </c>
       <c r="C8">
-        <v>0.03002249925349911</v>
+        <v>-0.03748642447534709</v>
       </c>
       <c r="D8">
-        <v>0.05520369640812386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07360292103837475</v>
+      </c>
+      <c r="E8">
+        <v>0.03406362759720678</v>
+      </c>
+      <c r="F8">
+        <v>0.04323460437714891</v>
+      </c>
+      <c r="G8">
+        <v>0.01693852258871228</v>
+      </c>
+      <c r="H8">
+        <v>-0.04279125836557719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0439317551919691</v>
+        <v>0.04170929311348411</v>
       </c>
       <c r="C9">
-        <v>0.04702194197436663</v>
+        <v>-0.05972944380297502</v>
       </c>
       <c r="D9">
-        <v>0.1126874127033798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1232570333179663</v>
+      </c>
+      <c r="E9">
+        <v>0.03618467541807589</v>
+      </c>
+      <c r="F9">
+        <v>0.003082276023042731</v>
+      </c>
+      <c r="G9">
+        <v>-0.02738562626631917</v>
+      </c>
+      <c r="H9">
+        <v>-0.008861862108538983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09350748996309773</v>
+        <v>0.1408059723342313</v>
       </c>
       <c r="C10">
-        <v>-0.1890623685107764</v>
+        <v>0.1865251597541571</v>
       </c>
       <c r="D10">
-        <v>0.003523791826407824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002945074409570196</v>
+      </c>
+      <c r="E10">
+        <v>0.04398835211846446</v>
+      </c>
+      <c r="F10">
+        <v>0.02295705063715477</v>
+      </c>
+      <c r="G10">
+        <v>-0.03407730865674299</v>
+      </c>
+      <c r="H10">
+        <v>0.001915118752927966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03442412595104159</v>
+        <v>0.02780341932785252</v>
       </c>
       <c r="C11">
-        <v>0.03780289017857573</v>
+        <v>-0.04467310983970395</v>
       </c>
       <c r="D11">
-        <v>0.05598897774525906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05848157141392642</v>
+      </c>
+      <c r="E11">
+        <v>-0.005137641918724649</v>
+      </c>
+      <c r="F11">
+        <v>0.001132136708305333</v>
+      </c>
+      <c r="G11">
+        <v>0.002655056523308589</v>
+      </c>
+      <c r="H11">
+        <v>-0.04847443503088598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04100073844612132</v>
+        <v>0.03322916738014742</v>
       </c>
       <c r="C12">
-        <v>0.03902053920905649</v>
+        <v>-0.04598159239716972</v>
       </c>
       <c r="D12">
-        <v>0.05924442271150245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05819782496758319</v>
+      </c>
+      <c r="E12">
+        <v>0.002208497029908857</v>
+      </c>
+      <c r="F12">
+        <v>-0.007736488855199201</v>
+      </c>
+      <c r="G12">
+        <v>0.00259747880621346</v>
+      </c>
+      <c r="H12">
+        <v>-0.06212510582186838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01886417711650431</v>
+        <v>0.01778862645066842</v>
       </c>
       <c r="C13">
-        <v>0.03082785066960106</v>
+        <v>-0.03769577420846121</v>
       </c>
       <c r="D13">
-        <v>0.1241419544780997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1441767172435945</v>
+      </c>
+      <c r="E13">
+        <v>0.04933381696133364</v>
+      </c>
+      <c r="F13">
+        <v>0.04067872569659403</v>
+      </c>
+      <c r="G13">
+        <v>0.01123845913824934</v>
+      </c>
+      <c r="H13">
+        <v>-0.1008407940788651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0108248865574895</v>
+        <v>0.008835795310982303</v>
       </c>
       <c r="C14">
-        <v>0.01420215601342961</v>
+        <v>-0.02402193921752671</v>
       </c>
       <c r="D14">
-        <v>0.07732320934629969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08780517792457415</v>
+      </c>
+      <c r="E14">
+        <v>0.0348736758307342</v>
+      </c>
+      <c r="F14">
+        <v>-0.001132314978590914</v>
+      </c>
+      <c r="G14">
+        <v>0.01491243893751267</v>
+      </c>
+      <c r="H14">
+        <v>-0.1032957887904567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001861765230877435</v>
+        <v>0.001625589422018589</v>
       </c>
       <c r="C15">
-        <v>0.001532938227554068</v>
+        <v>-0.01004942201631511</v>
       </c>
       <c r="D15">
-        <v>0.003416743363811213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03249750929468344</v>
+      </c>
+      <c r="E15">
+        <v>0.006199394111109014</v>
+      </c>
+      <c r="F15">
+        <v>-0.0009246162649116702</v>
+      </c>
+      <c r="G15">
+        <v>0.01031821171551405</v>
+      </c>
+      <c r="H15">
+        <v>-0.009865045625408436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03462891882457152</v>
+        <v>0.02847935498903344</v>
       </c>
       <c r="C16">
-        <v>0.04025341745123509</v>
+        <v>-0.04486745620227762</v>
       </c>
       <c r="D16">
-        <v>0.06601349231976894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06242510450966371</v>
+      </c>
+      <c r="E16">
+        <v>0.00822813607099096</v>
+      </c>
+      <c r="F16">
+        <v>-0.006322579107664262</v>
+      </c>
+      <c r="G16">
+        <v>0.003453033890440953</v>
+      </c>
+      <c r="H16">
+        <v>-0.06025680547147779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0103472231252227</v>
+        <v>0.006834140534529213</v>
       </c>
       <c r="C19">
-        <v>0.02392266389067334</v>
+        <v>-0.02052202401217058</v>
       </c>
       <c r="D19">
-        <v>0.1693551350094226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1246265915474207</v>
+      </c>
+      <c r="E19">
+        <v>0.06087382533050168</v>
+      </c>
+      <c r="F19">
+        <v>-0.003034643840523253</v>
+      </c>
+      <c r="G19">
+        <v>0.02209168510077187</v>
+      </c>
+      <c r="H19">
+        <v>-0.0649185657835194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01941120666359027</v>
+        <v>0.01567704024155811</v>
       </c>
       <c r="C20">
-        <v>0.02491288886158134</v>
+        <v>-0.0328562768417215</v>
       </c>
       <c r="D20">
-        <v>0.08665134703752213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09913333279718749</v>
+      </c>
+      <c r="E20">
+        <v>0.04943442440475183</v>
+      </c>
+      <c r="F20">
+        <v>-0.001763860810101443</v>
+      </c>
+      <c r="G20">
+        <v>0.002326595412077768</v>
+      </c>
+      <c r="H20">
+        <v>-0.05925726735658651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01400616159879283</v>
+        <v>0.01339595411884267</v>
       </c>
       <c r="C21">
-        <v>0.0326096117748664</v>
+        <v>-0.0371743817875386</v>
       </c>
       <c r="D21">
-        <v>0.1273346656821854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.139389239527571</v>
+      </c>
+      <c r="E21">
+        <v>0.08744681539011977</v>
+      </c>
+      <c r="F21">
+        <v>0.005983680585670719</v>
+      </c>
+      <c r="G21">
+        <v>-0.02141629489631501</v>
+      </c>
+      <c r="H21">
+        <v>-0.1228400049491791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.008934920575485632</v>
+        <v>0.005524341980870622</v>
       </c>
       <c r="C22">
-        <v>0.02888921737810797</v>
+        <v>-0.04155894689694901</v>
       </c>
       <c r="D22">
-        <v>0.08687149694252896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1451614417210771</v>
+      </c>
+      <c r="E22">
+        <v>0.02852847636167265</v>
+      </c>
+      <c r="F22">
+        <v>0.09043889280328229</v>
+      </c>
+      <c r="G22">
+        <v>0.0736571630011906</v>
+      </c>
+      <c r="H22">
+        <v>0.06493157051315421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.009058365167908691</v>
+        <v>0.005628589414007183</v>
       </c>
       <c r="C23">
-        <v>0.02881988368571883</v>
+        <v>-0.04202963043411319</v>
       </c>
       <c r="D23">
-        <v>0.08617002748030086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1446216724347621</v>
+      </c>
+      <c r="E23">
+        <v>0.02882665200823301</v>
+      </c>
+      <c r="F23">
+        <v>0.09040259883158398</v>
+      </c>
+      <c r="G23">
+        <v>0.07271349566763829</v>
+      </c>
+      <c r="H23">
+        <v>0.06506124674327145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03808866895572236</v>
+        <v>0.03010995312460243</v>
       </c>
       <c r="C24">
-        <v>0.04918624156832013</v>
+        <v>-0.05632258819026131</v>
       </c>
       <c r="D24">
-        <v>0.06401963934349389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06600212106915346</v>
+      </c>
+      <c r="E24">
+        <v>0.01221272235963655</v>
+      </c>
+      <c r="F24">
+        <v>-0.004703464987605596</v>
+      </c>
+      <c r="G24">
+        <v>-0.00450685794895606</v>
+      </c>
+      <c r="H24">
+        <v>-0.07150250287184917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04162021027785651</v>
+        <v>0.03454209727599913</v>
       </c>
       <c r="C25">
-        <v>0.04850380492717635</v>
+        <v>-0.05369367018338721</v>
       </c>
       <c r="D25">
-        <v>0.06382484084242493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0627570729857421</v>
+      </c>
+      <c r="E25">
+        <v>0.01246135679867865</v>
+      </c>
+      <c r="F25">
+        <v>0.001152202569261224</v>
+      </c>
+      <c r="G25">
+        <v>-0.005023761792328772</v>
+      </c>
+      <c r="H25">
+        <v>-0.0570965023698582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0204606390937749</v>
+        <v>0.01839031933663893</v>
       </c>
       <c r="C26">
-        <v>0.00806156251831049</v>
+        <v>-0.01765921565003907</v>
       </c>
       <c r="D26">
-        <v>0.05227606989545003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06356465118230049</v>
+      </c>
+      <c r="E26">
+        <v>0.0260120544501424</v>
+      </c>
+      <c r="F26">
+        <v>0.00481392972148843</v>
+      </c>
+      <c r="G26">
+        <v>0.009052717127243331</v>
+      </c>
+      <c r="H26">
+        <v>-0.06477217215841564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1429949082557777</v>
+        <v>0.2008188842945285</v>
       </c>
       <c r="C28">
-        <v>-0.2705756181464194</v>
+        <v>0.2502939405973384</v>
       </c>
       <c r="D28">
-        <v>-0.02797568870874399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01142368912651096</v>
+      </c>
+      <c r="E28">
+        <v>0.07008602585181785</v>
+      </c>
+      <c r="F28">
+        <v>0.003564394881916369</v>
+      </c>
+      <c r="G28">
+        <v>-0.06489240684349393</v>
+      </c>
+      <c r="H28">
+        <v>-0.01451629669391802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.007053739142401997</v>
+        <v>0.006314269081681525</v>
       </c>
       <c r="C29">
-        <v>0.01655253443883797</v>
+        <v>-0.02310511657500833</v>
       </c>
       <c r="D29">
-        <v>0.06227967723444653</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08192764173063309</v>
+      </c>
+      <c r="E29">
+        <v>0.0312130457686284</v>
+      </c>
+      <c r="F29">
+        <v>0.01247165044903493</v>
+      </c>
+      <c r="G29">
+        <v>-0.003388883914193211</v>
+      </c>
+      <c r="H29">
+        <v>-0.1091496833953583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03967585059046738</v>
+        <v>0.04085681672317917</v>
       </c>
       <c r="C30">
-        <v>0.03653071520114908</v>
+        <v>-0.0607642151267636</v>
       </c>
       <c r="D30">
-        <v>0.1656032854835672</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1787294995347242</v>
+      </c>
+      <c r="E30">
+        <v>0.01611508964654991</v>
+      </c>
+      <c r="F30">
+        <v>0.01123910425515668</v>
+      </c>
+      <c r="G30">
+        <v>0.02528927316254091</v>
+      </c>
+      <c r="H30">
+        <v>-0.002160033873284525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06915007448188942</v>
+        <v>0.0551157620353232</v>
       </c>
       <c r="C31">
-        <v>0.04909715843984575</v>
+        <v>-0.07249275980374661</v>
       </c>
       <c r="D31">
-        <v>0.06756321869363791</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05603052517901119</v>
+      </c>
+      <c r="E31">
+        <v>0.03002173092048986</v>
+      </c>
+      <c r="F31">
+        <v>0.03198411983180169</v>
+      </c>
+      <c r="G31">
+        <v>-0.01864132105894636</v>
+      </c>
+      <c r="H31">
+        <v>-0.04622500789273452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.006612976497659488</v>
+        <v>0.01106771459054852</v>
       </c>
       <c r="C32">
-        <v>0.01698942271155443</v>
+        <v>-0.01877521566097254</v>
       </c>
       <c r="D32">
-        <v>0.064195111951628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1021281991670988</v>
+      </c>
+      <c r="E32">
+        <v>0.08911326391024978</v>
+      </c>
+      <c r="F32">
+        <v>0.01726554430104579</v>
+      </c>
+      <c r="G32">
+        <v>-0.02091691235216331</v>
+      </c>
+      <c r="H32">
+        <v>-0.09805920069435686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02576683042310843</v>
+        <v>0.02241525107720558</v>
       </c>
       <c r="C33">
-        <v>0.02999619373328601</v>
+        <v>-0.04329335099889827</v>
       </c>
       <c r="D33">
-        <v>0.132726263292779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.132197134133109</v>
+      </c>
+      <c r="E33">
+        <v>0.04098383952917244</v>
+      </c>
+      <c r="F33">
+        <v>0.01796666214946162</v>
+      </c>
+      <c r="G33">
+        <v>0.005099593932055756</v>
+      </c>
+      <c r="H33">
+        <v>-0.06808797250461648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03576277804540777</v>
+        <v>0.02664388398934313</v>
       </c>
       <c r="C34">
-        <v>0.06133195458941047</v>
+        <v>-0.06117279164431625</v>
       </c>
       <c r="D34">
-        <v>0.06680770670267304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05525827480039541</v>
+      </c>
+      <c r="E34">
+        <v>-0.005169843087585516</v>
+      </c>
+      <c r="F34">
+        <v>-0.008894071263002214</v>
+      </c>
+      <c r="G34">
+        <v>0.003636119633843151</v>
+      </c>
+      <c r="H34">
+        <v>-0.0772931798302338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008470903727889472</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0006674971771551091</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005109082283928433</v>
+      </c>
+      <c r="E35">
+        <v>0.0007740073288913145</v>
+      </c>
+      <c r="F35">
+        <v>2.510844638088347e-05</v>
+      </c>
+      <c r="G35">
+        <v>0.001863679060885126</v>
+      </c>
+      <c r="H35">
+        <v>-0.002516282473660251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02110520839283251</v>
+        <v>0.0184181352498349</v>
       </c>
       <c r="C36">
-        <v>0.003328762009784604</v>
+        <v>-0.01453393017104667</v>
       </c>
       <c r="D36">
-        <v>0.07308087270930377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07802373702734018</v>
+      </c>
+      <c r="E36">
+        <v>0.03289106920771902</v>
+      </c>
+      <c r="F36">
+        <v>0.001453254981447586</v>
+      </c>
+      <c r="G36">
+        <v>-0.007251517924859107</v>
+      </c>
+      <c r="H36">
+        <v>-0.05832016290591401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02204773551753873</v>
+        <v>0.01988228039372221</v>
       </c>
       <c r="C38">
-        <v>0.01582983038058045</v>
+        <v>-0.02066315407063727</v>
       </c>
       <c r="D38">
-        <v>0.05179853088098878</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05975592475107459</v>
+      </c>
+      <c r="E38">
+        <v>0.03803013888589504</v>
+      </c>
+      <c r="F38">
+        <v>-0.007615016956316265</v>
+      </c>
+      <c r="G38">
+        <v>0.0386969825236573</v>
+      </c>
+      <c r="H38">
+        <v>-0.0396761584155688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04093624771216835</v>
+        <v>0.03511012057133239</v>
       </c>
       <c r="C39">
-        <v>0.0484358809949779</v>
+        <v>-0.06505834620817057</v>
       </c>
       <c r="D39">
-        <v>0.08915663380024165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1048359854021386</v>
+      </c>
+      <c r="E39">
+        <v>0.005235157578584383</v>
+      </c>
+      <c r="F39">
+        <v>-0.02568694670751832</v>
+      </c>
+      <c r="G39">
+        <v>0.006371001485116197</v>
+      </c>
+      <c r="H39">
+        <v>-0.08762520012932243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02112718886986668</v>
+        <v>0.01336660320264076</v>
       </c>
       <c r="C40">
-        <v>0.04618590004437644</v>
+        <v>-0.03896219068171235</v>
       </c>
       <c r="D40">
-        <v>0.07614057550324399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08347818138609937</v>
+      </c>
+      <c r="E40">
+        <v>0.06114999677976438</v>
+      </c>
+      <c r="F40">
+        <v>0.07002274297279412</v>
+      </c>
+      <c r="G40">
+        <v>0.06686418374674279</v>
+      </c>
+      <c r="H40">
+        <v>-0.1596028516040932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02558331304858918</v>
+        <v>0.02354197745022111</v>
       </c>
       <c r="C41">
-        <v>-0.003128772928252101</v>
+        <v>-0.008231380107411373</v>
       </c>
       <c r="D41">
-        <v>0.06819165832022234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05484011202826556</v>
+      </c>
+      <c r="E41">
+        <v>0.05222574173863748</v>
+      </c>
+      <c r="F41">
+        <v>0.002496519984421553</v>
+      </c>
+      <c r="G41">
+        <v>0.0139599091066509</v>
+      </c>
+      <c r="H41">
+        <v>-0.0482068107421513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0308893266489682</v>
+        <v>0.02261186523696781</v>
       </c>
       <c r="C43">
-        <v>0.007105375527648348</v>
+        <v>-0.01830000999606951</v>
       </c>
       <c r="D43">
-        <v>0.1042360953355796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08411223750405926</v>
+      </c>
+      <c r="E43">
+        <v>0.03239115510818085</v>
+      </c>
+      <c r="F43">
+        <v>0.003541202598975258</v>
+      </c>
+      <c r="G43">
+        <v>0.0141870358707558</v>
+      </c>
+      <c r="H43">
+        <v>-0.07214878679686614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01759444251011476</v>
+        <v>0.01709560595961061</v>
       </c>
       <c r="C44">
-        <v>0.04639737571293628</v>
+        <v>-0.04380834140188297</v>
       </c>
       <c r="D44">
-        <v>0.07704143975575854</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09904267269365312</v>
+      </c>
+      <c r="E44">
+        <v>0.06602222416037684</v>
+      </c>
+      <c r="F44">
+        <v>0.01084544888959541</v>
+      </c>
+      <c r="G44">
+        <v>0.007299537213379685</v>
+      </c>
+      <c r="H44">
+        <v>-0.07303747240458106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02074513058029682</v>
+        <v>0.01558033884550716</v>
       </c>
       <c r="C46">
-        <v>0.0156016529532</v>
+        <v>-0.02864154708101156</v>
       </c>
       <c r="D46">
-        <v>0.07294413459353444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08701481163083023</v>
+      </c>
+      <c r="E46">
+        <v>0.03555912668618998</v>
+      </c>
+      <c r="F46">
+        <v>-0.01280744731080342</v>
+      </c>
+      <c r="G46">
+        <v>-0.01151222311320908</v>
+      </c>
+      <c r="H46">
+        <v>-0.1119247951938117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09545853846576496</v>
+        <v>0.08158854798513918</v>
       </c>
       <c r="C47">
-        <v>0.06828654457816208</v>
+        <v>-0.08937340287954551</v>
       </c>
       <c r="D47">
-        <v>0.04723606237794294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03412153052136401</v>
+      </c>
+      <c r="E47">
+        <v>0.03552139704471516</v>
+      </c>
+      <c r="F47">
+        <v>0.02079613575951188</v>
+      </c>
+      <c r="G47">
+        <v>-0.0421534554178177</v>
+      </c>
+      <c r="H47">
+        <v>-0.02363615650981462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0172782021359142</v>
+        <v>0.01643836988874559</v>
       </c>
       <c r="C48">
-        <v>0.01305048166336045</v>
+        <v>-0.0194538147363788</v>
       </c>
       <c r="D48">
-        <v>0.06518382601827809</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07375814756856912</v>
+      </c>
+      <c r="E48">
+        <v>0.04926444783710646</v>
+      </c>
+      <c r="F48">
+        <v>-0.0009270233628760778</v>
+      </c>
+      <c r="G48">
+        <v>-0.004734776220215986</v>
+      </c>
+      <c r="H48">
+        <v>-0.06367046824622462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.06395953523124856</v>
+        <v>0.05324088478148883</v>
       </c>
       <c r="C50">
-        <v>0.05099121443520938</v>
+        <v>-0.06702216184673852</v>
       </c>
       <c r="D50">
-        <v>0.06332388127828875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05514292624353687</v>
+      </c>
+      <c r="E50">
+        <v>0.03969465633305387</v>
+      </c>
+      <c r="F50">
+        <v>0.03924982123578433</v>
+      </c>
+      <c r="G50">
+        <v>0.01369875881841106</v>
+      </c>
+      <c r="H50">
+        <v>-0.04702567133862182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008956338152959558</v>
+        <v>0.009845523047851398</v>
       </c>
       <c r="C51">
-        <v>0.01905243306324044</v>
+        <v>-0.01955468531221144</v>
       </c>
       <c r="D51">
-        <v>0.0811369775834021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08994802022639911</v>
+      </c>
+      <c r="E51">
+        <v>0.01339084770493722</v>
+      </c>
+      <c r="F51">
+        <v>0.00276052544037532</v>
+      </c>
+      <c r="G51">
+        <v>0.01972974222647524</v>
+      </c>
+      <c r="H51">
+        <v>-0.06819747250205671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08762780337570981</v>
+        <v>0.0854275435652173</v>
       </c>
       <c r="C53">
-        <v>0.08688137991673645</v>
+        <v>-0.1024414371892651</v>
       </c>
       <c r="D53">
-        <v>0.01636085386012308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01207119606612211</v>
+      </c>
+      <c r="E53">
+        <v>0.1058507473362451</v>
+      </c>
+      <c r="F53">
+        <v>0.04266263017084188</v>
+      </c>
+      <c r="G53">
+        <v>-0.08834979736087711</v>
+      </c>
+      <c r="H53">
+        <v>-0.01264077263606566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03310835481887777</v>
+        <v>0.02577910575127966</v>
       </c>
       <c r="C54">
-        <v>0.0276855619963342</v>
+        <v>-0.0364795476492378</v>
       </c>
       <c r="D54">
-        <v>0.08695445519440886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.087108099030255</v>
+      </c>
+      <c r="E54">
+        <v>0.04117666675166098</v>
+      </c>
+      <c r="F54">
+        <v>-0.01035090206925316</v>
+      </c>
+      <c r="G54">
+        <v>0.02332795025114596</v>
+      </c>
+      <c r="H54">
+        <v>-0.114833722834136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09132825939452469</v>
+        <v>0.08410370752729386</v>
       </c>
       <c r="C55">
-        <v>0.0571375065843347</v>
+        <v>-0.0818783498057661</v>
       </c>
       <c r="D55">
-        <v>-0.004670627802282814</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008134204495228173</v>
+      </c>
+      <c r="E55">
+        <v>0.05885583417351065</v>
+      </c>
+      <c r="F55">
+        <v>0.04073284900832055</v>
+      </c>
+      <c r="G55">
+        <v>-0.04410589210220751</v>
+      </c>
+      <c r="H55">
+        <v>0.001894237643765914</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1390807849244048</v>
+        <v>0.1278957780325042</v>
       </c>
       <c r="C56">
-        <v>0.09195348231456023</v>
+        <v>-0.1261636789070997</v>
       </c>
       <c r="D56">
-        <v>0.005866940782687929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00750805978589643</v>
+      </c>
+      <c r="E56">
+        <v>0.06398203875270386</v>
+      </c>
+      <c r="F56">
+        <v>0.03043933237630716</v>
+      </c>
+      <c r="G56">
+        <v>-0.04766294234556487</v>
+      </c>
+      <c r="H56">
+        <v>-0.00080783720956371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01541174098297145</v>
+        <v>0.02477927344167452</v>
       </c>
       <c r="C58">
-        <v>-0.01452841736723433</v>
+        <v>-0.01797623586521752</v>
       </c>
       <c r="D58">
-        <v>0.347356271085894</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3778285179154325</v>
+      </c>
+      <c r="E58">
+        <v>0.1935111188235333</v>
+      </c>
+      <c r="F58">
+        <v>0.1379086673439891</v>
+      </c>
+      <c r="G58">
+        <v>0.2494347127304445</v>
+      </c>
+      <c r="H58">
+        <v>0.4307218358583836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1373572778719987</v>
+        <v>0.178455509297146</v>
       </c>
       <c r="C59">
-        <v>-0.1946324663327439</v>
+        <v>0.1674857832040842</v>
       </c>
       <c r="D59">
-        <v>0.03196536375269035</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05258738795616629</v>
+      </c>
+      <c r="E59">
+        <v>0.01653464548469393</v>
+      </c>
+      <c r="F59">
+        <v>-0.04299363226302249</v>
+      </c>
+      <c r="G59">
+        <v>-0.0003313529992261889</v>
+      </c>
+      <c r="H59">
+        <v>0.02360420351973079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2469735432295606</v>
+        <v>0.2263378659701186</v>
       </c>
       <c r="C60">
-        <v>0.05951482688803283</v>
+        <v>-0.1053124211927053</v>
       </c>
       <c r="D60">
-        <v>0.17524676214779</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1129223031218674</v>
+      </c>
+      <c r="E60">
+        <v>-0.3618552612035939</v>
+      </c>
+      <c r="F60">
+        <v>0.027732193813387</v>
+      </c>
+      <c r="G60">
+        <v>-0.03396715950621445</v>
+      </c>
+      <c r="H60">
+        <v>0.1111356310458233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04779447972788105</v>
+        <v>0.03988677842939039</v>
       </c>
       <c r="C61">
-        <v>0.0516274482529977</v>
+        <v>-0.06182147012274673</v>
       </c>
       <c r="D61">
-        <v>0.09557341382436343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09219692978285898</v>
+      </c>
+      <c r="E61">
+        <v>0.001399693791298396</v>
+      </c>
+      <c r="F61">
+        <v>-0.01623229330667583</v>
+      </c>
+      <c r="G61">
+        <v>-0.006286971504930274</v>
+      </c>
+      <c r="H61">
+        <v>-0.08028275778568543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01782375933997107</v>
+        <v>0.01371120130601793</v>
       </c>
       <c r="C63">
-        <v>0.02342261053467333</v>
+        <v>-0.0337240264958498</v>
       </c>
       <c r="D63">
-        <v>0.06131439555075607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06810156531688649</v>
+      </c>
+      <c r="E63">
+        <v>0.0289507068218622</v>
+      </c>
+      <c r="F63">
+        <v>0.01743948360112497</v>
+      </c>
+      <c r="G63">
+        <v>0.004574208157586802</v>
+      </c>
+      <c r="H63">
+        <v>-0.05105009537026699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.06051451985489514</v>
+        <v>0.05309041365474201</v>
       </c>
       <c r="C64">
-        <v>0.0679345394564858</v>
+        <v>-0.08211265132209472</v>
       </c>
       <c r="D64">
-        <v>0.05853989638889893</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05481746919905373</v>
+      </c>
+      <c r="E64">
+        <v>0.02468012166954491</v>
+      </c>
+      <c r="F64">
+        <v>-0.013197292546242</v>
+      </c>
+      <c r="G64">
+        <v>-0.05218980275940561</v>
+      </c>
+      <c r="H64">
+        <v>-0.06152653131680959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0503472190860676</v>
+        <v>0.04652590783421027</v>
       </c>
       <c r="C65">
-        <v>0.004109794830909111</v>
+        <v>-0.02509655725267198</v>
       </c>
       <c r="D65">
-        <v>0.1120246696444988</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1153739770488162</v>
+      </c>
+      <c r="E65">
+        <v>0.001840350687275747</v>
+      </c>
+      <c r="F65">
+        <v>0.01835698854042688</v>
+      </c>
+      <c r="G65">
+        <v>0.03027449125393954</v>
+      </c>
+      <c r="H65">
+        <v>0.02444375423296066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04652040419353039</v>
+        <v>0.03954338051293024</v>
       </c>
       <c r="C66">
-        <v>0.05649325810135433</v>
+        <v>-0.07549082012316873</v>
       </c>
       <c r="D66">
-        <v>0.1105507809386869</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1298194885704618</v>
+      </c>
+      <c r="E66">
+        <v>0.01111214104321064</v>
+      </c>
+      <c r="F66">
+        <v>-0.01020798484024098</v>
+      </c>
+      <c r="G66">
+        <v>0.01610828838757208</v>
+      </c>
+      <c r="H66">
+        <v>-0.05482671403811702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04156880583215662</v>
+        <v>0.03709392309683229</v>
       </c>
       <c r="C67">
-        <v>0.01831806861541709</v>
+        <v>-0.02675490306494849</v>
       </c>
       <c r="D67">
-        <v>0.0224089789503888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02048250306129581</v>
+      </c>
+      <c r="E67">
+        <v>0.01677198498120894</v>
+      </c>
+      <c r="F67">
+        <v>-0.007063714721591882</v>
+      </c>
+      <c r="G67">
+        <v>0.03562486118252926</v>
+      </c>
+      <c r="H67">
+        <v>-0.03905962137675611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1571628552155147</v>
+        <v>0.1968706358740536</v>
       </c>
       <c r="C68">
-        <v>-0.2409434287821758</v>
+        <v>0.1987328222585335</v>
       </c>
       <c r="D68">
-        <v>-0.01842054215459251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01139259097216238</v>
+      </c>
+      <c r="E68">
+        <v>0.05360859494341378</v>
+      </c>
+      <c r="F68">
+        <v>0.03025497190080011</v>
+      </c>
+      <c r="G68">
+        <v>0.01165613907354501</v>
+      </c>
+      <c r="H68">
+        <v>0.005584040241127889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08763451896901951</v>
+        <v>0.074461856937224</v>
       </c>
       <c r="C69">
-        <v>0.08556492870436579</v>
+        <v>-0.09699131251391273</v>
       </c>
       <c r="D69">
-        <v>0.06588303573451543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04645856202436292</v>
+      </c>
+      <c r="E69">
+        <v>0.02358247103990789</v>
+      </c>
+      <c r="F69">
+        <v>0.007697918245213066</v>
+      </c>
+      <c r="G69">
+        <v>-0.03046547728703317</v>
+      </c>
+      <c r="H69">
+        <v>-0.03724160346791874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1372422973502978</v>
+        <v>0.1830744603780196</v>
       </c>
       <c r="C71">
-        <v>-0.2414140660060226</v>
+        <v>0.2095216443267374</v>
       </c>
       <c r="D71">
-        <v>0.01857173878974058</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03733453384590724</v>
+      </c>
+      <c r="E71">
+        <v>0.05333058652785144</v>
+      </c>
+      <c r="F71">
+        <v>0.03228683031878271</v>
+      </c>
+      <c r="G71">
+        <v>-0.01652325018105818</v>
+      </c>
+      <c r="H71">
+        <v>-0.02556842339180528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0979463728011212</v>
+        <v>0.09809030816473996</v>
       </c>
       <c r="C72">
-        <v>0.0402458818543347</v>
+        <v>-0.06977098800214412</v>
       </c>
       <c r="D72">
-        <v>0.08506033400195041</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09287547465163118</v>
+      </c>
+      <c r="E72">
+        <v>-0.03903164377046547</v>
+      </c>
+      <c r="F72">
+        <v>0.03833943301320102</v>
+      </c>
+      <c r="G72">
+        <v>-0.03009507073613668</v>
+      </c>
+      <c r="H72">
+        <v>-0.03586321273255688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2696422946149659</v>
+        <v>0.2407747526538112</v>
       </c>
       <c r="C73">
-        <v>0.006172993357386947</v>
+        <v>-0.0876400587814862</v>
       </c>
       <c r="D73">
-        <v>0.2853856613772106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1667944882975629</v>
+      </c>
+      <c r="E73">
+        <v>-0.6703440935940909</v>
+      </c>
+      <c r="F73">
+        <v>0.01935120709890591</v>
+      </c>
+      <c r="G73">
+        <v>-0.01439335999875558</v>
+      </c>
+      <c r="H73">
+        <v>0.1584213302364172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1100496413049208</v>
+        <v>0.09878197430862536</v>
       </c>
       <c r="C74">
-        <v>0.06644062443841631</v>
+        <v>-0.09120925504860405</v>
       </c>
       <c r="D74">
-        <v>0.01521104624097562</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.004062346849671527</v>
+      </c>
+      <c r="E74">
+        <v>0.07582476331894737</v>
+      </c>
+      <c r="F74">
+        <v>0.06275888531333387</v>
+      </c>
+      <c r="G74">
+        <v>-0.06088089663374496</v>
+      </c>
+      <c r="H74">
+        <v>0.02723945626637412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2522826117936918</v>
+        <v>0.227508841958814</v>
       </c>
       <c r="C75">
-        <v>0.1201792116669471</v>
+        <v>-0.1678869483676314</v>
       </c>
       <c r="D75">
-        <v>-0.06449565208182813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09432741460149453</v>
+      </c>
+      <c r="E75">
+        <v>0.104483052081466</v>
+      </c>
+      <c r="F75">
+        <v>-0.003143535913726793</v>
+      </c>
+      <c r="G75">
+        <v>-0.05865844955747933</v>
+      </c>
+      <c r="H75">
+        <v>0.1027841165285875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1436698979496462</v>
+        <v>0.1269926843156101</v>
       </c>
       <c r="C76">
-        <v>0.08512271380579647</v>
+        <v>-0.1150047202392826</v>
       </c>
       <c r="D76">
-        <v>-0.0013251206384052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01103150824898364</v>
+      </c>
+      <c r="E76">
+        <v>0.1162385023839817</v>
+      </c>
+      <c r="F76">
+        <v>0.0166378025699135</v>
+      </c>
+      <c r="G76">
+        <v>-0.04728192859075679</v>
+      </c>
+      <c r="H76">
+        <v>-0.01312641535756175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06799393221773853</v>
+        <v>0.0611743078981449</v>
       </c>
       <c r="C77">
-        <v>0.06031119504328209</v>
+        <v>-0.07020819892934334</v>
       </c>
       <c r="D77">
-        <v>0.04802688660133547</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1348212905082042</v>
+      </c>
+      <c r="E77">
+        <v>0.2186183981527765</v>
+      </c>
+      <c r="F77">
+        <v>-0.2741821258970324</v>
+      </c>
+      <c r="G77">
+        <v>0.2072864223568342</v>
+      </c>
+      <c r="H77">
+        <v>0.3441995114053029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04323881108010803</v>
+        <v>0.04257232313095759</v>
       </c>
       <c r="C78">
-        <v>0.05456212556347908</v>
+        <v>-0.06689628485218489</v>
       </c>
       <c r="D78">
-        <v>0.1177081890782094</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1315051843793145</v>
+      </c>
+      <c r="E78">
+        <v>0.01359280331676283</v>
+      </c>
+      <c r="F78">
+        <v>0.01048525061873735</v>
+      </c>
+      <c r="G78">
+        <v>-0.01421539158766552</v>
+      </c>
+      <c r="H78">
+        <v>-0.02689067778466806</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.01509655943194657</v>
+        <v>0.04553451725240475</v>
       </c>
       <c r="C79">
-        <v>0.07537963261831662</v>
+        <v>-0.09029954272332329</v>
       </c>
       <c r="D79">
-        <v>-0.0007622857270682285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02086847057149784</v>
+      </c>
+      <c r="E79">
+        <v>0.1975108098459881</v>
+      </c>
+      <c r="F79">
+        <v>0.1357813867572646</v>
+      </c>
+      <c r="G79">
+        <v>-0.7254609788376539</v>
+      </c>
+      <c r="H79">
+        <v>0.357350891207103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03414597239533158</v>
+        <v>0.02609680215859665</v>
       </c>
       <c r="C80">
-        <v>0.02673839567721302</v>
+        <v>-0.04413124667781236</v>
       </c>
       <c r="D80">
-        <v>0.02407435260467774</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03210496154764796</v>
+      </c>
+      <c r="E80">
+        <v>0.01614086677963684</v>
+      </c>
+      <c r="F80">
+        <v>-0.01685058671969254</v>
+      </c>
+      <c r="G80">
+        <v>0.05239133166176808</v>
+      </c>
+      <c r="H80">
+        <v>-0.007098046284473815</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1466736395815059</v>
+        <v>0.1266182661810637</v>
       </c>
       <c r="C81">
-        <v>0.09132902056880893</v>
+        <v>-0.1184108919762167</v>
       </c>
       <c r="D81">
-        <v>-0.04779768110491028</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06436778480423223</v>
+      </c>
+      <c r="E81">
+        <v>0.1144334610435314</v>
+      </c>
+      <c r="F81">
+        <v>0.02419629454700873</v>
+      </c>
+      <c r="G81">
+        <v>-0.04840617192617835</v>
+      </c>
+      <c r="H81">
+        <v>0.01123974441781191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3123816542041384</v>
+        <v>0.2504866872313002</v>
       </c>
       <c r="C82">
-        <v>0.2610344753443699</v>
+        <v>-0.2656141857115231</v>
       </c>
       <c r="D82">
-        <v>-0.2384274161961089</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2313644771285134</v>
+      </c>
+      <c r="E82">
+        <v>-0.01906375272601457</v>
+      </c>
+      <c r="F82">
+        <v>0.04258722346549623</v>
+      </c>
+      <c r="G82">
+        <v>-0.07558586904509003</v>
+      </c>
+      <c r="H82">
+        <v>-0.4425842960141388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02964629892592242</v>
+        <v>0.02393626243881694</v>
       </c>
       <c r="C83">
-        <v>0.0518410441620711</v>
+        <v>-0.05055127148935792</v>
       </c>
       <c r="D83">
-        <v>0.04885094599330234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05100713518342344</v>
+      </c>
+      <c r="E83">
+        <v>0.01920678735570876</v>
+      </c>
+      <c r="F83">
+        <v>-0.02497516129246799</v>
+      </c>
+      <c r="G83">
+        <v>0.01713448733876185</v>
+      </c>
+      <c r="H83">
+        <v>-0.02135569225828089</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0005616464243129207</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004477387725002199</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0183289934872118</v>
+      </c>
+      <c r="E84">
+        <v>0.01600544685811108</v>
+      </c>
+      <c r="F84">
+        <v>0.008109164226080913</v>
+      </c>
+      <c r="G84">
+        <v>0.008307606154417176</v>
+      </c>
+      <c r="H84">
+        <v>-0.001592395302069208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1812883944899045</v>
+        <v>0.1583122285712873</v>
       </c>
       <c r="C85">
-        <v>0.09067271174997008</v>
+        <v>-0.1343057115183153</v>
       </c>
       <c r="D85">
-        <v>-0.03628091377760999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06399621286929118</v>
+      </c>
+      <c r="E85">
+        <v>0.04995526504486503</v>
+      </c>
+      <c r="F85">
+        <v>0.03591168140551333</v>
+      </c>
+      <c r="G85">
+        <v>-0.09504823934966064</v>
+      </c>
+      <c r="H85">
+        <v>0.08049139753880126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01691133937023289</v>
+        <v>0.0191890577429649</v>
       </c>
       <c r="C86">
-        <v>0.02892234460830654</v>
+        <v>-0.02241137911448592</v>
       </c>
       <c r="D86">
-        <v>0.1413605586387276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1277364836728178</v>
+      </c>
+      <c r="E86">
+        <v>0.007131486068294009</v>
+      </c>
+      <c r="F86">
+        <v>-0.01632918816066874</v>
+      </c>
+      <c r="G86">
+        <v>0.002392094182591936</v>
+      </c>
+      <c r="H86">
+        <v>-0.06103990952752929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03027637646571185</v>
+        <v>0.03438949297696807</v>
       </c>
       <c r="C87">
-        <v>0.006921338787394638</v>
+        <v>-0.02535421859668615</v>
       </c>
       <c r="D87">
-        <v>0.1015818891859814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.136474047558895</v>
+      </c>
+      <c r="E87">
+        <v>0.08065965579749651</v>
+      </c>
+      <c r="F87">
+        <v>-0.007834765501160201</v>
+      </c>
+      <c r="G87">
+        <v>0.02013815250907797</v>
+      </c>
+      <c r="H87">
+        <v>-0.03118237922702902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07647963210010511</v>
+        <v>0.06756595357106326</v>
       </c>
       <c r="C88">
-        <v>0.03888343070078585</v>
+        <v>-0.05717588170266454</v>
       </c>
       <c r="D88">
-        <v>0.03169770942863546</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01637971521949658</v>
+      </c>
+      <c r="E88">
+        <v>0.02213636337649603</v>
+      </c>
+      <c r="F88">
+        <v>0.01286486293782461</v>
+      </c>
+      <c r="G88">
+        <v>-0.0007281838646337207</v>
+      </c>
+      <c r="H88">
+        <v>-0.04290353371781678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.200688397264899</v>
+        <v>0.2818225244110563</v>
       </c>
       <c r="C89">
-        <v>-0.3951812187462991</v>
+        <v>0.3544702186913418</v>
       </c>
       <c r="D89">
-        <v>-0.02329811519304551</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0005937958946848848</v>
+      </c>
+      <c r="E89">
+        <v>0.04733921503076874</v>
+      </c>
+      <c r="F89">
+        <v>-0.04452488929190658</v>
+      </c>
+      <c r="G89">
+        <v>-0.0436806029673138</v>
+      </c>
+      <c r="H89">
+        <v>-0.08698198191966593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1915681918891435</v>
+        <v>0.2424801112388411</v>
       </c>
       <c r="C90">
-        <v>-0.2993262173308673</v>
+        <v>0.2529348875340959</v>
       </c>
       <c r="D90">
-        <v>-0.02617645385214908</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0121857399534746</v>
+      </c>
+      <c r="E90">
+        <v>0.04261742776130262</v>
+      </c>
+      <c r="F90">
+        <v>0.01212744597696945</v>
+      </c>
+      <c r="G90">
+        <v>0.05030629585991984</v>
+      </c>
+      <c r="H90">
+        <v>-0.03998893470156461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1869173277461871</v>
+        <v>0.1591260463169645</v>
       </c>
       <c r="C91">
-        <v>0.1366762136880992</v>
+        <v>-0.1591078823873352</v>
       </c>
       <c r="D91">
-        <v>-0.06321711068733131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0832103950772404</v>
+      </c>
+      <c r="E91">
+        <v>0.1081611707353266</v>
+      </c>
+      <c r="F91">
+        <v>0.02236920830590394</v>
+      </c>
+      <c r="G91">
+        <v>-0.09484229395639462</v>
+      </c>
+      <c r="H91">
+        <v>0.0832391151558165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1658403049344078</v>
+        <v>0.2240013997936736</v>
       </c>
       <c r="C92">
-        <v>-0.2927694295597404</v>
+        <v>0.2698137378700053</v>
       </c>
       <c r="D92">
-        <v>0.01078614765541162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03167245049786497</v>
+      </c>
+      <c r="E92">
+        <v>0.08791836336717272</v>
+      </c>
+      <c r="F92">
+        <v>-0.01364179486118429</v>
+      </c>
+      <c r="G92">
+        <v>0.01117074483487993</v>
+      </c>
+      <c r="H92">
+        <v>-0.04132540818674001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2201506893878173</v>
+        <v>0.267240904768036</v>
       </c>
       <c r="C93">
-        <v>-0.3263721039125598</v>
+        <v>0.2657532273289158</v>
       </c>
       <c r="D93">
-        <v>-0.002790645961459564</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006925354686495493</v>
+      </c>
+      <c r="E93">
+        <v>0.009837372865049392</v>
+      </c>
+      <c r="F93">
+        <v>0.02464097316785088</v>
+      </c>
+      <c r="G93">
+        <v>-0.002784784439725661</v>
+      </c>
+      <c r="H93">
+        <v>0.006859129792022511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3994876419122522</v>
+        <v>0.3379080711608757</v>
       </c>
       <c r="C94">
-        <v>0.2066899248807855</v>
+        <v>-0.2670669911097511</v>
       </c>
       <c r="D94">
-        <v>-0.4640017929617316</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4290803914305603</v>
+      </c>
+      <c r="E94">
+        <v>0.1010620666946335</v>
+      </c>
+      <c r="F94">
+        <v>-0.01897546918702295</v>
+      </c>
+      <c r="G94">
+        <v>0.4831328039605809</v>
+      </c>
+      <c r="H94">
+        <v>0.1780575624813757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07676315084936962</v>
+        <v>0.06601874346405237</v>
       </c>
       <c r="C95">
-        <v>0.06236474957651267</v>
+        <v>-0.06633625768614697</v>
       </c>
       <c r="D95">
-        <v>0.1184375757227193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08935524310450171</v>
+      </c>
+      <c r="E95">
+        <v>-0.001871123554055236</v>
+      </c>
+      <c r="F95">
+        <v>-0.9082262546447619</v>
+      </c>
+      <c r="G95">
+        <v>-0.1459860274276651</v>
+      </c>
+      <c r="H95">
+        <v>-0.004759090677268259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1712037556655412</v>
+        <v>0.1604067038597815</v>
       </c>
       <c r="C98">
-        <v>0.01922422524250855</v>
+        <v>-0.06758128594392171</v>
       </c>
       <c r="D98">
-        <v>0.1652661367115386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1281161870275968</v>
+      </c>
+      <c r="E98">
+        <v>-0.3177659137405838</v>
+      </c>
+      <c r="F98">
+        <v>0.04825764904248141</v>
+      </c>
+      <c r="G98">
+        <v>-0.04747714026039578</v>
+      </c>
+      <c r="H98">
+        <v>0.05318674458119341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006963885742701741</v>
+        <v>0.006391829375314144</v>
       </c>
       <c r="C101">
-        <v>0.01634771440083802</v>
+        <v>-0.02237580311129045</v>
       </c>
       <c r="D101">
-        <v>0.06298799494145972</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08183681260352899</v>
+      </c>
+      <c r="E101">
+        <v>0.03166516727406968</v>
+      </c>
+      <c r="F101">
+        <v>0.01169288182517839</v>
+      </c>
+      <c r="G101">
+        <v>-0.004096874063882716</v>
+      </c>
+      <c r="H101">
+        <v>-0.1092876504511318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.129582523658848</v>
+        <v>0.1062258924631795</v>
       </c>
       <c r="C102">
-        <v>0.1098034657884665</v>
+        <v>-0.1188505076119715</v>
       </c>
       <c r="D102">
-        <v>-0.03593243175911192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05596208233803333</v>
+      </c>
+      <c r="E102">
+        <v>0.03250708628215407</v>
+      </c>
+      <c r="F102">
+        <v>-0.02603880239167896</v>
+      </c>
+      <c r="G102">
+        <v>-0.03535256424718707</v>
+      </c>
+      <c r="H102">
+        <v>-0.03491929353347244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
